--- a/res/page/系统管理/ParkingGroupPage.xlsx
+++ b/res/page/系统管理/ParkingGroupPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>别名</t>
   </si>
@@ -27,19 +27,19 @@
     <t>定位值</t>
   </si>
   <si>
-    <t>系统管理</t>
+    <t>账号管理</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>//div[@id='menu_box']//a[contains(text(), "系统管理")]</t>
-  </si>
-  <si>
-    <t>停车场分组管理</t>
-  </si>
-  <si>
-    <t>//li/a[@id='2300']</t>
+    <t>//nav[@class='menu-box']//a[contains(text(), "账号管理")]</t>
+  </si>
+  <si>
+    <t>车场分组</t>
+  </si>
+  <si>
+    <t>//ul[@role='menubar']//span[contains(text(),'车场分组')]</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -51,7 +51,7 @@
     <t>搜索按钮</t>
   </si>
   <si>
-    <t>//div[@class='form-group search-group']</t>
+    <t>//i[@class='ion-ios-search-strong']</t>
   </si>
   <si>
     <t>新增</t>
@@ -60,10 +60,16 @@
     <t>//*[@id="app"]//a[contains(text(), "新增")]</t>
   </si>
   <si>
+    <t>创建分组</t>
+  </si>
+  <si>
+    <t>//div[@class='top-tab-box']//span[text()='创建分组']</t>
+  </si>
+  <si>
     <t>分组名称</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'分组名称')]/following-sibling::*[1]//input</t>
+    <t>//*[@id="app"]//label[text()='分组名称']/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>描述</t>
@@ -72,6 +78,18 @@
     <t>//*[@id="app"]//label[contains(text(),'描述')]/following-sibling::*[1]//textarea</t>
   </si>
   <si>
+    <t>绑定停车场列</t>
+  </si>
+  <si>
+    <t>//div[@class='top-tab-box']//span[text()='绑定停车场']</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>//span[text()='完成']</t>
+  </si>
+  <si>
     <t>确认-提示</t>
   </si>
   <si>
@@ -81,10 +99,10 @@
     <t>绑定停车场</t>
   </si>
   <si>
-    <t>//*[@id="authzParkingGroupTable"]//div[@class='el-table__fixed-right']//span[contains(text(),'绑定停车场')]</t>
-  </si>
-  <si>
-    <t>勾选停车场</t>
+    <t>//*[@id="authzParkingGroupTable"]//div[@class='el-table__fixed-right']//i[@class='icon-parkinglot']</t>
+  </si>
+  <si>
+    <t>停车场列表</t>
   </si>
   <si>
     <t>//ul[@id='parkTree']</t>
@@ -93,7 +111,7 @@
     <t>查看用户</t>
   </si>
   <si>
-    <t>//*[@id="authzParkingGroupTable"]//div[@class='el-table__fixed-right']//span[contains(text(),'查看用户')]</t>
+    <t>//*[@id="authzParkingGroupTable"]//div[@class='el-table__fixed-right']//i[@class='icon-user']</t>
   </si>
   <si>
     <t>关闭-提示</t>
@@ -127,8 +145,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,6 +171,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -161,61 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,19 +238,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,6 +254,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -260,6 +262,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -268,6 +278,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,14 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,61 +323,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,121 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +556,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,33 +576,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +597,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -619,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -771,10 +789,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,7 +867,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1128,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1164,43 +1182,43 @@
       </c>
     </row>
     <row r="3" ht="42" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1208,10 +1226,10 @@
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1219,10 +1237,10 @@
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1230,91 +1248,124 @@
       </c>
     </row>
     <row r="9" ht="42" customHeight="1" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="29" customHeight="1" spans="1:3">
-      <c r="A16" s="4" t="s">
+    <row r="16" ht="42" customHeight="1" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="42" customHeight="1" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="42" customHeight="1" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="29" customHeight="1" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
